--- a/APOD_testing.xlsx
+++ b/APOD_testing.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Классы эквивалентности" sheetId="2" r:id="rId2"/>
+    <sheet name="Граничные значения" sheetId="4" r:id="rId3"/>
+    <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>Требования к
 API APOD</t>
@@ -562,9 +564,6 @@
 от 16-06-1995 до сегодня</t>
   </si>
   <si>
-    <t>date :06-12-1997</t>
-  </si>
-  <si>
     <t>Показывает астронамическую картинку на заданный день</t>
   </si>
   <si>
@@ -636,6 +635,218 @@
   <si>
     <t>Показывает сообщение "Not Found
 The requested URL /apod/ap221024.html was not found on this server."</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности для поля start_date</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+от 16-06-1995 до сегодня</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+дату меньше чем 16-06-1995</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+дату больше чем сегодня</t>
+  </si>
+  <si>
+    <t>Отправить пустое поле start_date</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date 
+00-00-0000</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+01-01-1970</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+01-01-1900</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+99-99-9999</t>
+  </si>
+  <si>
+    <t>start_date: 06-12-1997</t>
+  </si>
+  <si>
+    <t>date: 06-12-1997</t>
+  </si>
+  <si>
+    <t>start_date: 15-06-1995</t>
+  </si>
+  <si>
+    <t>start_date:</t>
+  </si>
+  <si>
+    <t>start_date: 99-99-9999</t>
+  </si>
+  <si>
+    <t>start_date: 01-01-1900</t>
+  </si>
+  <si>
+    <t>start_date: 01-01-1970</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности для поля end_date</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+от 16-06-1995 до сегодня</t>
+  </si>
+  <si>
+    <t>end_date: 06-12-1997</t>
+  </si>
+  <si>
+    <t>end_date: 15-06-1995</t>
+  </si>
+  <si>
+    <t>end_date:</t>
+  </si>
+  <si>
+    <t>end_date: 99-99-9999</t>
+  </si>
+  <si>
+    <t>end_date: 01-01-1900</t>
+  </si>
+  <si>
+    <t>end_date: 01-01-1970</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+99-99-9999</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date
+00-00-0000</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+дату больше чем сегодня</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+дату меньше чем 16-06-1995</t>
+  </si>
+  <si>
+    <t>Отправить пустое поле end_date</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+01-01-1900</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+01-01-1970</t>
+  </si>
+  <si>
+    <t>Граничные значения для поля date</t>
+  </si>
+  <si>
+    <t>date: 16-06-1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле date  
+минимальную дату </t>
+  </si>
+  <si>
+    <t>Ввести в поле date  
+минимальную дату-1</t>
+  </si>
+  <si>
+    <t>date: сегодня+1</t>
+  </si>
+  <si>
+    <t>date:сегодня-1</t>
+  </si>
+  <si>
+    <t>Ввести в поле date  
+ максимальная дата+1</t>
+  </si>
+  <si>
+    <t>Ввести в поле date  
+ максимальная дата-1</t>
+  </si>
+  <si>
+    <t>Ввести в поле date  
+максимальную дату</t>
+  </si>
+  <si>
+    <t>date: сегодня</t>
+  </si>
+  <si>
+    <t>Граничные значения для поля start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле start_date  
+минимальную дату </t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+минимальную дату-1</t>
+  </si>
+  <si>
+    <t>start_date: 16-06-1995</t>
+  </si>
+  <si>
+    <t>start_date: сегодня+1</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+ максимальная дата+1</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+ максимальная дата-1</t>
+  </si>
+  <si>
+    <t>start_date:сегодня-1</t>
+  </si>
+  <si>
+    <t>Ввести в поле start_date  
+максимальную дату</t>
+  </si>
+  <si>
+    <t>start_date: сегодня</t>
+  </si>
+  <si>
+    <t>Граничные значения для поля end_date</t>
+  </si>
+  <si>
+    <t>end_date: 16-06-1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле end_date  
+минимальную дату </t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+минимальную дату-1</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+ максимальная дата+1</t>
+  </si>
+  <si>
+    <t>end_date: сегодня+1</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+ максимальная дата-1</t>
+  </si>
+  <si>
+    <t>end_date:сегодня-1</t>
+  </si>
+  <si>
+    <t>Ввести в поле end_date  
+максимальную дату</t>
+  </si>
+  <si>
+    <t>end_date: сегодня</t>
   </si>
 </sst>
 </file>
@@ -727,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -759,44 +970,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,6 +1046,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1145,237 +1399,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1400,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,202 +1669,1033 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="C7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="B26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="B27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="B28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/APOD_testing.xlsx
+++ b/APOD_testing.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
     <sheet name="Классы эквивалентности" sheetId="2" r:id="rId2"/>
     <sheet name="Граничные значения" sheetId="4" r:id="rId3"/>
-    <sheet name="Тест кейсы" sheetId="5" r:id="rId4"/>
+    <sheet name="Check_List" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="197">
   <si>
     <t>Требования к
 API APOD</t>
@@ -848,12 +848,185 @@
   <si>
     <t>end_date: сегодня</t>
   </si>
+  <si>
+    <t>API NASA APOD</t>
+  </si>
+  <si>
+    <t>Осипов Н.Г.</t>
+  </si>
+  <si>
+    <t>Windows 10 Home
+Postman 9.16.0</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Дата проведения тестирования</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окружение </t>
+  </si>
+  <si>
+    <t>Модуль</t>
+  </si>
+  <si>
+    <t>Подмодуль</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>APOD</t>
+  </si>
+  <si>
+    <t>Параметры строки запроса</t>
+  </si>
+  <si>
+    <t>Тестовые данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api_key: </t>
+  </si>
+  <si>
+    <t>api_key: LfeFFlJT2ndoMVnmxDtR1eJBr2j36inokUV6xErv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api_key:                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api_key:  LfeFFlJT2ndoMVnmxDtR1eJBr2j36inokUV6xErv </t>
+  </si>
+  <si>
+    <t>api_key: LfeFFlJT2ndoM VnmxDtR1eJBr2j36inokUV6xErv</t>
+  </si>
+  <si>
+    <t>api_key: &lt;script&gt;alert('test script entered into the api')&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Ввести минимальную дату</t>
+  </si>
+  <si>
+    <t>date: 1997-12-06</t>
+  </si>
+  <si>
+    <t>date: 1995-06-16</t>
+  </si>
+  <si>
+    <t>Ввести минимальную дату+1</t>
+  </si>
+  <si>
+    <t>date: 1995-06-17</t>
+  </si>
+  <si>
+    <t>Ввести минимальную дату+2</t>
+  </si>
+  <si>
+    <t>date: 1995-06-18</t>
+  </si>
+  <si>
+    <t>Ввести минимальную дату+3</t>
+  </si>
+  <si>
+    <t>date: 1995-06-19</t>
+  </si>
+  <si>
+    <t>Ввести максимальную дату</t>
+  </si>
+  <si>
+    <t>Ввести пробелы в начале и конце в поле</t>
+  </si>
+  <si>
+    <t>Ввести пробелы в середине в поле</t>
+  </si>
+  <si>
+    <t>Ввести теги в поле</t>
+  </si>
+  <si>
+    <t>Ввести валидные данные</t>
+  </si>
+  <si>
+    <t>Отправить пустое поле</t>
+  </si>
+  <si>
+    <t>Ввести пробелы в поле</t>
+  </si>
+  <si>
+    <t>Оставить поле пустым</t>
+  </si>
+  <si>
+    <t>Ввести дату в формате ДД-ММ-ГГГГ</t>
+  </si>
+  <si>
+    <t>Ввести максимальную дату+1</t>
+  </si>
+  <si>
+    <t>date: завтра</t>
+  </si>
+  <si>
+    <t>Ввести минимальную дату-1</t>
+  </si>
+  <si>
+    <t>date: 1995-06-15</t>
+  </si>
+  <si>
+    <t>Ввести невалидные данные</t>
+  </si>
+  <si>
+    <t>date: 0000-01-01</t>
+  </si>
+  <si>
+    <t>date: 9999-99-99</t>
+  </si>
+  <si>
+    <t>date: 1997-02-31</t>
+  </si>
+  <si>
+    <t>date: 1900-01-01</t>
+  </si>
+  <si>
+    <t>date: 1970-01-01</t>
+  </si>
+  <si>
+    <t>Ввести Unix дату</t>
+  </si>
+  <si>
+    <t>Ввести SQL дату</t>
+  </si>
+  <si>
+    <t>Ввести нелогичную дату</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести символы </t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>api_key: 1fasd1фыв5"!@#$!@$%@!#hfghsфыв</t>
+  </si>
+  <si>
+    <t>Ввести длинное значение в поле</t>
+  </si>
+  <si>
+    <t>api_key: 
+1fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв1111111111111111111111111111111111111111111111111111111111fasd1фыв5"!@#$!@$%@!#hfghsфыв111111111111111111111111111111111111111111111111111111111</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,8 +1072,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,8 +1117,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1007,12 +1205,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1079,6 +1321,61 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1387,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,19 +1997,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1720,19 +2017,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1740,19 +2037,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -1760,19 +2057,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1780,19 +2077,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -1800,22 +2097,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1870,19 +2167,19 @@
       <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -2213,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,122 +2554,122 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2688,14 +2985,422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="45"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="45"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="45"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="32"/>
+      <c r="D16" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="32"/>
+      <c r="D17" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="32"/>
+      <c r="D18" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="32"/>
+      <c r="D19" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="32"/>
+      <c r="D20" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="32"/>
+      <c r="D21" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="32"/>
+      <c r="D22" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="32"/>
+      <c r="D23" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="32"/>
+      <c r="D24" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="32"/>
+      <c r="D25" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="32"/>
+      <c r="D26" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="32"/>
+      <c r="D27" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="32"/>
+      <c r="D28" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="32"/>
+      <c r="D29" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="32"/>
+      <c r="D30" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="32"/>
+      <c r="D31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C15:C31"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>